--- a/AAII_Financials/Quarterly/HSCS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HSCS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="92">
   <si>
     <t>HSCS</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,51 +665,57 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E7" s="2">
         <v>44681</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44592</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
+        <v>44408</v>
+      </c>
+      <c r="H7" s="2">
         <v>44316</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44227</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -737,8 +743,11 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -754,11 +763,11 @@
       <c r="G9" s="3">
         <v>0</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -766,8 +775,11 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -783,11 +795,11 @@
       <c r="G10" s="3">
         <v>0</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -795,8 +807,11 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -808,37 +823,41 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>400</v>
+      </c>
+      <c r="E12" s="3">
         <v>1400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
+        <v>400</v>
+      </c>
+      <c r="H12" s="3">
         <v>600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>1100</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -866,8 +885,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -875,19 +897,19 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>-300</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
       </c>
       <c r="G14" s="3">
         <v>-300</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>-300</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
@@ -895,8 +917,11 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -924,8 +949,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -934,37 +962,41 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E17" s="3">
         <v>2000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
+        <v>400</v>
+      </c>
+      <c r="H17" s="3">
         <v>800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1500</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -972,28 +1004,31 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-2500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H18" s="3">
         <v>-800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-1500</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1005,8 +1040,9 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1022,11 +1058,11 @@
       <c r="G20" s="3">
         <v>0</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
@@ -1034,8 +1070,11 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1043,28 +1082,31 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F21" s="3">
         <v>-2500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H21" s="3">
         <v>-800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-1500</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1072,19 +1114,19 @@
         <v>100</v>
       </c>
       <c r="E22" s="3">
+        <v>100</v>
+      </c>
+      <c r="F22" s="3">
         <v>300</v>
-      </c>
-      <c r="F22" s="3">
-        <v>100</v>
       </c>
       <c r="G22" s="3">
         <v>100</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
+      <c r="H22" s="3">
+        <v>100</v>
+      </c>
+      <c r="I22" s="3">
+        <v>100</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>3</v>
@@ -1092,37 +1134,43 @@
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H23" s="3">
         <v>-900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-1600</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1150,8 +1198,11 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1179,66 +1230,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H26" s="3">
         <v>-900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-1600</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H27" s="3">
         <v>-900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-1600</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1266,8 +1326,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1295,8 +1358,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1324,8 +1390,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1353,8 +1422,11 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1370,11 +1442,11 @@
       <c r="G32" s="3">
         <v>0</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
@@ -1382,37 +1454,43 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H33" s="3">
         <v>-900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-1600</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1440,71 +1518,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H35" s="3">
         <v>-900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-1600</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E38" s="2">
         <v>44681</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44592</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
+        <v>44408</v>
+      </c>
+      <c r="H38" s="2">
         <v>44316</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44227</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1516,8 +1603,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1529,20 +1617,21 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E41" s="3">
         <v>900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1300</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1558,8 +1647,11 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1587,16 +1679,19 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
         <v>0</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>3</v>
+      <c r="E43" s="3">
+        <v>0</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>3</v>
@@ -1616,8 +1711,11 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1627,8 +1725,8 @@
       <c r="E44" s="3">
         <v>700</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>3</v>
+      <c r="F44" s="3">
+        <v>700</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>3</v>
@@ -1645,20 +1743,23 @@
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>500</v>
+      </c>
+      <c r="E45" s="3">
         <v>300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>400</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1674,20 +1775,23 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E46" s="3">
         <v>1900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2400</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1703,8 +1807,11 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1732,19 +1839,22 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E48" s="3">
         <v>200</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
+      <c r="F48" s="3">
+        <v>200</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
@@ -1761,8 +1871,11 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1790,8 +1903,11 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1819,8 +1935,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1848,8 +1967,11 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1877,8 +1999,11 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1906,20 +2031,23 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E54" s="3">
         <v>2100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2600</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1935,8 +2063,11 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1948,8 +2079,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1961,20 +2093,21 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>500</v>
+      </c>
+      <c r="E57" s="3">
         <v>700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>400</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
       </c>
@@ -1990,20 +2123,23 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>100</v>
+      </c>
+      <c r="E58" s="3">
         <v>1600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2600</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2019,20 +2155,23 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1000</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2048,20 +2187,23 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E60" s="3">
         <v>3500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4100</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2077,20 +2219,23 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E61" s="3">
         <v>4400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2600</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -2106,19 +2251,22 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>100</v>
+      </c>
+      <c r="E62" s="3">
         <v>200</v>
       </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
+      <c r="F62" s="3">
+        <v>0</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
@@ -2135,8 +2283,11 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2164,8 +2315,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2193,8 +2347,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2222,20 +2379,23 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E66" s="3">
         <v>8100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6700</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2251,8 +2411,11 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2264,8 +2427,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2293,8 +2457,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2322,8 +2489,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2351,8 +2521,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2380,20 +2553,23 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-56000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-54400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-52300</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2409,8 +2585,11 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2438,8 +2617,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2467,8 +2649,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2496,20 +2681,23 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E76" s="3">
         <v>-6100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-4100</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2525,8 +2713,11 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2554,71 +2745,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E80" s="2">
         <v>44681</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44592</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
+        <v>44408</v>
+      </c>
+      <c r="H80" s="2">
         <v>44316</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44227</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H81" s="3">
         <v>-900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-1600</v>
       </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2630,8 +2830,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2647,11 +2848,11 @@
       <c r="G83" s="3">
         <v>0</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
@@ -2659,8 +2860,11 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2688,8 +2892,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2717,8 +2924,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2746,8 +2956,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2775,8 +2988,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2804,37 +3020,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-2500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I89" s="3">
         <v>-1700</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2846,8 +3068,9 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2857,8 +3080,8 @@
       <c r="E91" s="3">
         <v>0</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>3</v>
@@ -2875,8 +3098,11 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2904,8 +3130,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2933,8 +3162,11 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -2950,11 +3182,11 @@
       <c r="G94" s="3">
         <v>0</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -2962,8 +3194,11 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2975,8 +3210,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3004,8 +3240,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3033,8 +3272,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3062,8 +3304,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3091,37 +3336,43 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E100" s="3">
         <v>800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>3100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>2200</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3149,33 +3400,39 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
+        <v>-700</v>
+      </c>
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>500</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HSCS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HSCS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="92">
   <si>
     <t>HSCS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,57 +665,62 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44865</v>
+      </c>
+      <c r="E7" s="2">
         <v>44773</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44681</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44592</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
+        <v>44500</v>
+      </c>
+      <c r="I7" s="2">
         <v>44408</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44316</v>
       </c>
-      <c r="I7" s="2">
-        <v>44227</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -746,13 +751,16 @@
       <c r="L8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3">
-        <v>0</v>
+      <c r="D9" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E9" s="3">
         <v>0</v>
@@ -763,14 +771,14 @@
       <c r="G9" s="3">
         <v>0</v>
       </c>
-      <c r="H9" s="3">
-        <v>0</v>
+      <c r="H9" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I9" s="3">
         <v>0</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
+      <c r="J9" s="3">
+        <v>0</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
@@ -778,8 +786,11 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -795,14 +806,14 @@
       <c r="G10" s="3">
         <v>0</v>
       </c>
-      <c r="H10" s="3">
-        <v>0</v>
+      <c r="H10" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I10" s="3">
         <v>0</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
+      <c r="J10" s="3">
+        <v>0</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
@@ -810,8 +821,11 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -824,40 +838,44 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>800</v>
+      </c>
+      <c r="E12" s="3">
         <v>400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
+        <v>500</v>
+      </c>
+      <c r="I12" s="3">
         <v>400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>600</v>
       </c>
-      <c r="I12" s="3">
-        <v>1100</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -888,8 +906,11 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -900,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="G14" s="3">
         <v>-300</v>
@@ -911,8 +932,8 @@
       <c r="I14" s="3">
         <v>-300</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
@@ -920,8 +941,11 @@
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -952,8 +976,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -963,40 +990,44 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E17" s="3">
         <v>1400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I17" s="3">
         <v>400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>800</v>
       </c>
-      <c r="I17" s="3">
-        <v>1500</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1004,31 +1035,34 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-2000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="I18" s="3">
         <v>-400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-800</v>
       </c>
-      <c r="I18" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1041,8 +1075,9 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1064,8 +1099,8 @@
       <c r="I20" s="3">
         <v>0</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
+      <c r="J20" s="3">
+        <v>0</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
@@ -1073,8 +1108,11 @@
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1082,45 +1120,48 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F21" s="3">
         <v>-2000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-2500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="I21" s="3">
         <v>-400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-800</v>
       </c>
-      <c r="I21" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E22" s="3">
         <v>100</v>
       </c>
       <c r="F22" s="3">
+        <v>100</v>
+      </c>
+      <c r="G22" s="3">
         <v>300</v>
-      </c>
-      <c r="G22" s="3">
-        <v>100</v>
       </c>
       <c r="H22" s="3">
         <v>100</v>
@@ -1128,8 +1169,8 @@
       <c r="I22" s="3">
         <v>100</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
+      <c r="J22" s="3">
+        <v>100</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
@@ -1137,40 +1178,46 @@
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="I23" s="3">
         <v>-500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-900</v>
       </c>
-      <c r="I23" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1201,8 +1248,11 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1233,72 +1283,81 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="I26" s="3">
         <v>-500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-900</v>
       </c>
-      <c r="I26" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="I27" s="3">
         <v>-500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-900</v>
       </c>
-      <c r="I27" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1329,8 +1388,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1361,8 +1423,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1393,8 +1458,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1425,8 +1493,11 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1448,8 +1519,8 @@
       <c r="I32" s="3">
         <v>0</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
+      <c r="J32" s="3">
+        <v>0</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
@@ -1457,40 +1528,46 @@
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="I33" s="3">
         <v>-500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-900</v>
       </c>
-      <c r="I33" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1521,77 +1598,86 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="I35" s="3">
         <v>-500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-900</v>
       </c>
-      <c r="I35" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44865</v>
+      </c>
+      <c r="E38" s="2">
         <v>44773</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44681</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44592</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
+        <v>44500</v>
+      </c>
+      <c r="I38" s="2">
         <v>44408</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44316</v>
       </c>
-      <c r="I38" s="2">
-        <v>44227</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1604,8 +1690,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1618,23 +1705,24 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E41" s="3">
         <v>4300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1300</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1650,8 +1738,11 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1682,8 +1773,11 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1693,8 +1787,8 @@
       <c r="E43" s="3">
         <v>0</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
+      <c r="F43" s="3">
+        <v>0</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
@@ -1714,8 +1808,11 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1728,8 +1825,8 @@
       <c r="F44" s="3">
         <v>700</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>3</v>
+      <c r="G44" s="3">
+        <v>700</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
@@ -1746,23 +1843,26 @@
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>400</v>
+      </c>
+      <c r="E45" s="3">
         <v>500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>400</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1778,23 +1878,26 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E46" s="3">
         <v>5400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2400</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1810,8 +1913,11 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1842,22 +1948,25 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>600</v>
+      </c>
+      <c r="E48" s="3">
         <v>100</v>
-      </c>
-      <c r="E48" s="3">
-        <v>200</v>
       </c>
       <c r="F48" s="3">
         <v>200</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
+      <c r="G48" s="3">
+        <v>200</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1874,8 +1983,11 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1906,8 +2018,11 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1938,8 +2053,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1970,8 +2088,11 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2002,8 +2123,11 @@
       <c r="L52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2034,23 +2158,26 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E54" s="3">
         <v>5600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2600</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2066,8 +2193,11 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2080,8 +2210,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2094,23 +2225,24 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>800</v>
+      </c>
+      <c r="E57" s="3">
         <v>500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>400</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2126,23 +2258,26 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E58" s="3">
         <v>100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2600</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2158,23 +2293,26 @@
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E59" s="3">
         <v>1000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1000</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2190,23 +2328,26 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E60" s="3">
         <v>1500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4100</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2222,23 +2363,26 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
         <v>1000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>4400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2600</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -2254,22 +2398,25 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>500</v>
+      </c>
+      <c r="E62" s="3">
         <v>100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>200</v>
       </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
+      <c r="G62" s="3">
+        <v>0</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2286,8 +2433,11 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2318,8 +2468,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2350,8 +2503,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2382,23 +2538,26 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E66" s="3">
         <v>2700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>8100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6700</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2414,8 +2573,11 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2428,8 +2590,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2460,8 +2623,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2492,8 +2658,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2524,8 +2693,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2556,23 +2728,26 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-57800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-56000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-54400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-52300</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2588,8 +2763,11 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2620,8 +2798,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2652,8 +2833,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2684,23 +2868,26 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E76" s="3">
         <v>2900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-6100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-4100</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2716,8 +2903,11 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2748,77 +2938,86 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44865</v>
+      </c>
+      <c r="E80" s="2">
         <v>44773</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44681</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44592</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
+        <v>44500</v>
+      </c>
+      <c r="I80" s="2">
         <v>44408</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44316</v>
       </c>
-      <c r="I80" s="2">
-        <v>44227</v>
-      </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="I81" s="3">
         <v>-500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-900</v>
       </c>
-      <c r="I81" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2831,8 +3030,9 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2854,8 +3054,8 @@
       <c r="I83" s="3">
         <v>0</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
+      <c r="J83" s="3">
+        <v>0</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
@@ -2863,8 +3063,11 @@
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2895,8 +3098,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2927,8 +3133,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2959,8 +3168,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2991,8 +3203,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3023,40 +3238,46 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-2500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="I89" s="3">
         <v>-700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-700</v>
       </c>
-      <c r="I89" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3069,8 +3290,9 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3083,8 +3305,8 @@
       <c r="F91" s="3">
         <v>0</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
+      <c r="G91" s="3">
+        <v>0</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
@@ -3101,8 +3323,11 @@
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3133,8 +3358,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3165,8 +3393,11 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3188,8 +3419,8 @@
       <c r="I94" s="3">
         <v>0</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
+      <c r="J94" s="3">
+        <v>0</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
@@ -3197,8 +3428,11 @@
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3211,8 +3445,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3243,8 +3478,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3275,8 +3513,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3307,8 +3548,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3339,40 +3583,46 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E100" s="3">
         <v>5200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>3100</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>500</v>
       </c>
-      <c r="I100" s="3">
-        <v>2200</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3403,36 +3653,42 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E102" s="3">
         <v>3400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
+        <v>400</v>
+      </c>
+      <c r="I102" s="3">
         <v>-700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-200</v>
       </c>
-      <c r="I102" s="3">
-        <v>500</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HSCS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HSCS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="92">
   <si>
     <t>HSCS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,62 +665,66 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E7" s="2">
         <v>44865</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44773</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44681</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44592</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44500</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44408</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44316</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -754,16 +758,19 @@
       <c r="M8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0</v>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F9" s="3">
         <v>0</v>
@@ -771,17 +778,17 @@
       <c r="G9" s="3">
         <v>0</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I9" s="3">
-        <v>0</v>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J9" s="3">
         <v>0</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
+      <c r="K9" s="3">
+        <v>0</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>3</v>
@@ -789,16 +796,19 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="3">
-        <v>0</v>
+      <c r="E10" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F10" s="3">
         <v>0</v>
@@ -806,17 +816,17 @@
       <c r="G10" s="3">
         <v>0</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I10" s="3">
-        <v>0</v>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J10" s="3">
         <v>0</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
+      <c r="K10" s="3">
+        <v>0</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>3</v>
@@ -824,8 +834,11 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -839,43 +852,47 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>600</v>
+      </c>
+      <c r="E12" s="3">
         <v>800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>600</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,8 +926,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -924,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>-300</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>-300</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>3</v>
@@ -944,8 +964,11 @@
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -979,8 +1002,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -991,43 +1017,47 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E17" s="3">
         <v>1800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>800</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1035,34 +1065,37 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-800</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1076,8 +1109,9 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1102,8 +1136,8 @@
       <c r="J20" s="3">
         <v>0</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
+      <c r="K20" s="3">
+        <v>0</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
@@ -1111,8 +1145,11 @@
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1120,34 +1157,37 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-2000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-2500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-800</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1155,16 +1195,16 @@
         <v>0</v>
       </c>
       <c r="E22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F22" s="3">
         <v>100</v>
       </c>
       <c r="G22" s="3">
+        <v>100</v>
+      </c>
+      <c r="H22" s="3">
         <v>300</v>
-      </c>
-      <c r="H22" s="3">
-        <v>100</v>
       </c>
       <c r="I22" s="3">
         <v>100</v>
@@ -1172,8 +1212,8 @@
       <c r="J22" s="3">
         <v>100</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
+      <c r="K22" s="3">
+        <v>100</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>3</v>
@@ -1181,43 +1221,49 @@
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-900</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1251,8 +1297,11 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1286,78 +1335,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-900</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-900</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1391,8 +1449,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1426,8 +1487,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1461,8 +1525,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1496,8 +1563,11 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1522,8 +1592,8 @@
       <c r="J32" s="3">
         <v>0</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
+      <c r="K32" s="3">
+        <v>0</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
@@ -1531,43 +1601,49 @@
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-900</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1601,83 +1677,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-900</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E38" s="2">
         <v>44865</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44773</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44681</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44592</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44500</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44408</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44316</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1691,8 +1776,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1706,26 +1792,27 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E41" s="3">
         <v>3100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1300</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1741,8 +1828,11 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1776,8 +1866,11 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1790,8 +1883,8 @@
       <c r="F43" s="3">
         <v>0</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
+      <c r="G43" s="3">
+        <v>0</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1811,8 +1904,11 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1828,8 +1924,8 @@
       <c r="G44" s="3">
         <v>700</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>3</v>
+      <c r="H44" s="3">
+        <v>700</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>3</v>
@@ -1846,26 +1942,29 @@
       <c r="M44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>300</v>
+      </c>
+      <c r="E45" s="3">
         <v>400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>400</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1881,26 +1980,29 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E46" s="3">
         <v>4100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>5400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2400</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1916,8 +2018,11 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1951,8 +2056,11 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1960,16 +2068,16 @@
         <v>600</v>
       </c>
       <c r="E48" s="3">
+        <v>600</v>
+      </c>
+      <c r="F48" s="3">
         <v>100</v>
-      </c>
-      <c r="F48" s="3">
-        <v>200</v>
       </c>
       <c r="G48" s="3">
         <v>200</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
+      <c r="H48" s="3">
+        <v>200</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -1986,8 +2094,11 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2021,8 +2132,11 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2056,8 +2170,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2091,8 +2208,11 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2126,8 +2246,11 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2161,26 +2284,29 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E54" s="3">
         <v>4800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2600</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2196,8 +2322,11 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2211,8 +2340,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2226,26 +2356,27 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E57" s="3">
         <v>800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>400</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2261,26 +2392,29 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>100</v>
+      </c>
+      <c r="E58" s="3">
         <v>1100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2600</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2296,26 +2430,29 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>800</v>
+      </c>
+      <c r="E59" s="3">
         <v>1200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1000</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2331,26 +2468,29 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E60" s="3">
         <v>3100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4100</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2366,26 +2506,29 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
         <v>1000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>4400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2600</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2401,25 +2544,28 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>800</v>
+      </c>
+      <c r="E62" s="3">
         <v>500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>200</v>
       </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
+      <c r="H62" s="3">
+        <v>0</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2436,8 +2582,11 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2471,8 +2620,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2506,8 +2658,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2541,8 +2696,11 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2550,17 +2708,17 @@
         <v>3700</v>
       </c>
       <c r="E66" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F66" s="3">
         <v>2700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>8100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>6700</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2576,8 +2734,11 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2591,8 +2752,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2626,8 +2788,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2661,8 +2826,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2696,8 +2864,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2731,26 +2902,29 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-59100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-57800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-56000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-54400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-52300</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2766,8 +2940,11 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2801,8 +2978,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2836,8 +3016,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2871,26 +3054,29 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E76" s="3">
         <v>1100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-6100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-4100</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2906,8 +3092,11 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2941,83 +3130,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E80" s="2">
         <v>44865</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44773</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44681</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44592</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44500</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44408</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44316</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-900</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3031,8 +3229,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3057,8 +3256,8 @@
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
+      <c r="K83" s="3">
+        <v>0</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
@@ -3066,8 +3265,11 @@
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3101,8 +3303,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3136,8 +3341,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3171,8 +3379,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3206,8 +3417,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3241,34 +3455,37 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-2500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-800</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-700</v>
       </c>
       <c r="J89" s="3">
         <v>-700</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
+      <c r="K89" s="3">
+        <v>-700</v>
       </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
@@ -3276,8 +3493,11 @@
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3291,8 +3511,9 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3308,14 +3529,14 @@
       <c r="G91" s="3">
         <v>0</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
@@ -3326,8 +3547,11 @@
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3361,8 +3585,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3396,8 +3623,11 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3422,8 +3652,8 @@
       <c r="J94" s="3">
         <v>0</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
+      <c r="K94" s="3">
+        <v>0</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
@@ -3431,8 +3661,11 @@
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3446,8 +3679,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3481,8 +3715,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3516,8 +3753,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3551,8 +3791,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3586,8 +3829,11 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3595,34 +3841,37 @@
         <v>-100</v>
       </c>
       <c r="E100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F100" s="3">
         <v>5200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>3100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1100</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>500</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3656,39 +3905,45 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>3400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-200</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HSCS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HSCS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="92">
   <si>
     <t>HSCS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,66 +665,69 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45046</v>
+      </c>
+      <c r="E7" s="2">
         <v>44957</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44865</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44773</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44681</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44592</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44500</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44408</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44316</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -761,19 +764,22 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0</v>
+      <c r="D9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G9" s="3">
         <v>0</v>
@@ -781,17 +787,17 @@
       <c r="H9" s="3">
         <v>0</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J9" s="3">
-        <v>0</v>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K9" s="3">
         <v>0</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
+      <c r="L9" s="3">
+        <v>0</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>3</v>
@@ -799,19 +805,22 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="3">
-        <v>0</v>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G10" s="3">
         <v>0</v>
@@ -819,17 +828,17 @@
       <c r="H10" s="3">
         <v>0</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J10" s="3">
-        <v>0</v>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K10" s="3">
         <v>0</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
+      <c r="L10" s="3">
+        <v>0</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>3</v>
@@ -837,8 +846,11 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -853,46 +865,50 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>500</v>
+      </c>
+      <c r="E12" s="3">
         <v>600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>600</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -929,8 +945,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -947,19 +966,19 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>-300</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>-300</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>3</v>
@@ -967,8 +986,11 @@
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1005,8 +1027,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1018,46 +1043,50 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E17" s="3">
         <v>1300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>800</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1065,37 +1094,40 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-2500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-800</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1110,8 +1142,9 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1139,8 +1172,8 @@
       <c r="K20" s="3">
         <v>0</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
+      <c r="L20" s="3">
+        <v>0</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
@@ -1148,8 +1181,11 @@
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1157,37 +1193,40 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-2000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-2500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-800</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1198,16 +1237,16 @@
         <v>0</v>
       </c>
       <c r="F22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G22" s="3">
         <v>100</v>
       </c>
       <c r="H22" s="3">
+        <v>100</v>
+      </c>
+      <c r="I22" s="3">
         <v>300</v>
-      </c>
-      <c r="I22" s="3">
-        <v>100</v>
       </c>
       <c r="J22" s="3">
         <v>100</v>
@@ -1215,8 +1254,8 @@
       <c r="K22" s="3">
         <v>100</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
+      <c r="L22" s="3">
+        <v>100</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>3</v>
@@ -1224,46 +1263,52 @@
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-900</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1300,8 +1345,11 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1338,84 +1386,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-900</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-900</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1452,8 +1509,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1490,8 +1550,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1528,8 +1591,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1566,8 +1632,11 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1595,8 +1664,8 @@
       <c r="K32" s="3">
         <v>0</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
+      <c r="L32" s="3">
+        <v>0</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
@@ -1604,46 +1673,52 @@
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-900</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1680,89 +1755,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-900</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45046</v>
+      </c>
+      <c r="E38" s="2">
         <v>44957</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44865</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44773</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44681</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44592</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44500</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44408</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44316</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1777,8 +1861,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1793,29 +1878,30 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E41" s="3">
         <v>1900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1300</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1831,8 +1917,11 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1869,8 +1958,11 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1886,8 +1978,8 @@
       <c r="G43" s="3">
         <v>0</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
+      <c r="H43" s="3">
+        <v>0</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1907,8 +1999,11 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1927,8 +2022,8 @@
       <c r="H44" s="3">
         <v>700</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>3</v>
+      <c r="I44" s="3">
+        <v>700</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>3</v>
@@ -1945,29 +2040,32 @@
       <c r="N44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>400</v>
+      </c>
+      <c r="E45" s="3">
         <v>300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>400</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1983,29 +2081,32 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E46" s="3">
         <v>2900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>5400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2400</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2021,8 +2122,11 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2059,8 +2163,11 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2071,16 +2178,16 @@
         <v>600</v>
       </c>
       <c r="F48" s="3">
+        <v>600</v>
+      </c>
+      <c r="G48" s="3">
         <v>100</v>
-      </c>
-      <c r="G48" s="3">
-        <v>200</v>
       </c>
       <c r="H48" s="3">
         <v>200</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
+      <c r="I48" s="3">
+        <v>200</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -2097,8 +2204,11 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2135,8 +2245,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2173,8 +2286,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2211,8 +2327,11 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2249,8 +2368,11 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2287,29 +2409,32 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E54" s="3">
         <v>3500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2600</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2325,8 +2450,11 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2341,8 +2469,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2357,29 +2486,30 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>600</v>
+      </c>
+      <c r="E57" s="3">
         <v>1000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>400</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2395,29 +2525,32 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>500</v>
+      </c>
+      <c r="E58" s="3">
         <v>100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2600</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2433,29 +2566,32 @@
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>700</v>
+      </c>
+      <c r="E59" s="3">
         <v>800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1000</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2471,29 +2607,32 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E60" s="3">
         <v>2000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4100</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2509,29 +2648,32 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>500</v>
+      </c>
+      <c r="E61" s="3">
         <v>1000</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
         <v>1000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>4400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2600</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2547,28 +2689,31 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>700</v>
+      </c>
+      <c r="E62" s="3">
         <v>800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>200</v>
       </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
+      <c r="I62" s="3">
+        <v>0</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
@@ -2585,8 +2730,11 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2623,8 +2771,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2661,8 +2812,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2699,29 +2853,32 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3700</v>
+        <v>3100</v>
       </c>
       <c r="E66" s="3">
         <v>3700</v>
       </c>
       <c r="F66" s="3">
+        <v>3700</v>
+      </c>
+      <c r="G66" s="3">
         <v>2700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>8100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>6700</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2737,8 +2894,11 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2753,8 +2913,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2791,8 +2952,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2829,8 +2993,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2867,8 +3034,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2905,29 +3075,32 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-60800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-59100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-57800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-56000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-54400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-52300</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2943,8 +3116,11 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2981,8 +3157,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3019,8 +3198,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3057,29 +3239,32 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>200</v>
+      </c>
+      <c r="E76" s="3">
         <v>-300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-6100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-4100</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3095,8 +3280,11 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3133,89 +3321,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45046</v>
+      </c>
+      <c r="E80" s="2">
         <v>44957</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44865</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44773</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44681</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44592</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44500</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44408</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44316</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-900</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3230,8 +3427,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3259,8 +3457,8 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
+      <c r="L83" s="3">
+        <v>0</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
@@ -3268,8 +3466,11 @@
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3306,8 +3507,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3344,8 +3548,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3382,8 +3589,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3420,8 +3630,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3458,37 +3671,40 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-2500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-800</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-700</v>
       </c>
       <c r="K89" s="3">
         <v>-700</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
+      <c r="L89" s="3">
+        <v>-700</v>
       </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
@@ -3496,8 +3712,11 @@
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3512,8 +3731,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3538,8 +3758,8 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
@@ -3550,8 +3770,11 @@
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3588,8 +3811,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3626,8 +3852,11 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3655,8 +3884,8 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
+      <c r="L94" s="3">
+        <v>0</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
@@ -3664,8 +3893,11 @@
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3680,8 +3912,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3718,8 +3951,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3756,8 +3992,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3794,8 +4033,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3832,46 +4074,52 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-100</v>
+        <v>1600</v>
       </c>
       <c r="E100" s="3">
         <v>-100</v>
       </c>
       <c r="F100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G100" s="3">
         <v>5200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>3100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1100</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>500</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3908,42 +4156,48 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>3400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-200</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HSCS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HSCS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="92">
   <si>
     <t>HSCS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,69 +665,73 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45138</v>
+      </c>
+      <c r="E7" s="2">
         <v>45046</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44957</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44865</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44773</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44681</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44592</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44500</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44408</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44316</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -767,22 +771,25 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0</v>
+      <c r="E9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H9" s="3">
         <v>0</v>
@@ -790,17 +797,17 @@
       <c r="I9" s="3">
         <v>0</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K9" s="3">
-        <v>0</v>
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L9" s="3">
         <v>0</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>3</v>
+      <c r="M9" s="3">
+        <v>0</v>
       </c>
       <c r="N9" s="3" t="s">
         <v>3</v>
@@ -808,22 +815,25 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="3">
-        <v>0</v>
+      <c r="E10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H10" s="3">
         <v>0</v>
@@ -831,17 +841,17 @@
       <c r="I10" s="3">
         <v>0</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K10" s="3">
-        <v>0</v>
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L10" s="3">
         <v>0</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>3</v>
+      <c r="M10" s="3">
+        <v>0</v>
       </c>
       <c r="N10" s="3" t="s">
         <v>3</v>
@@ -849,8 +859,11 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -866,49 +879,53 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>600</v>
+      </c>
+      <c r="E12" s="3">
         <v>500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>600</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -948,13 +965,16 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -969,19 +989,19 @@
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>-300</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>-300</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>3</v>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>3</v>
@@ -989,8 +1009,11 @@
       <c r="O14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1030,8 +1053,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1044,49 +1070,53 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E17" s="3">
         <v>1600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>800</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1094,40 +1124,43 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-2000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-2500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-800</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1143,8 +1176,9 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1175,8 +1209,8 @@
       <c r="L20" s="3">
         <v>0</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
+      <c r="M20" s="3">
+        <v>0</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
@@ -1184,8 +1218,11 @@
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1193,40 +1230,43 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-2000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-2500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-800</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1240,16 +1280,16 @@
         <v>0</v>
       </c>
       <c r="G22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H22" s="3">
         <v>100</v>
       </c>
       <c r="I22" s="3">
+        <v>100</v>
+      </c>
+      <c r="J22" s="3">
         <v>300</v>
-      </c>
-      <c r="J22" s="3">
-        <v>100</v>
       </c>
       <c r="K22" s="3">
         <v>100</v>
@@ -1257,8 +1297,8 @@
       <c r="L22" s="3">
         <v>100</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
+      <c r="M22" s="3">
+        <v>100</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>3</v>
@@ -1266,49 +1306,55 @@
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-900</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1348,8 +1394,11 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1389,90 +1438,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-900</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-900</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1512,8 +1570,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1553,8 +1614,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1594,8 +1658,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1635,8 +1702,11 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1667,8 +1737,8 @@
       <c r="L32" s="3">
         <v>0</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
+      <c r="M32" s="3">
+        <v>0</v>
       </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
@@ -1676,49 +1746,55 @@
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-900</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1758,95 +1834,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-900</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45138</v>
+      </c>
+      <c r="E38" s="2">
         <v>45046</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44957</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44865</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44773</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44681</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44592</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44500</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44408</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44316</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1862,8 +1947,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1879,32 +1965,33 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>600</v>
+      </c>
+      <c r="E41" s="3">
         <v>1700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1300</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1920,8 +2007,11 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1961,13 +2051,16 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>0</v>
+      <c r="D43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E43" s="3">
         <v>0</v>
@@ -1981,8 +2074,8 @@
       <c r="H43" s="3">
         <v>0</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
+      <c r="I43" s="3">
+        <v>0</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -2002,8 +2095,11 @@
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2025,8 +2121,8 @@
       <c r="I44" s="3">
         <v>700</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>3</v>
+      <c r="J44" s="3">
+        <v>700</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>3</v>
@@ -2043,32 +2139,35 @@
       <c r="O44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>800</v>
+      </c>
+      <c r="E45" s="3">
         <v>400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>400</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2084,32 +2183,35 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E46" s="3">
         <v>2700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>5400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2400</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2125,8 +2227,11 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2166,8 +2271,11 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2181,16 +2289,16 @@
         <v>600</v>
       </c>
       <c r="G48" s="3">
+        <v>600</v>
+      </c>
+      <c r="H48" s="3">
         <v>100</v>
-      </c>
-      <c r="H48" s="3">
-        <v>200</v>
       </c>
       <c r="I48" s="3">
         <v>200</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
+      <c r="J48" s="3">
+        <v>200</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
@@ -2207,8 +2315,11 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2248,8 +2359,11 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2289,8 +2403,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2330,8 +2447,11 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2371,8 +2491,11 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2412,32 +2535,35 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E54" s="3">
         <v>3300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2600</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2453,8 +2579,11 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2470,8 +2599,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2487,32 +2617,33 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>500</v>
+      </c>
+      <c r="E57" s="3">
         <v>600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>400</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2528,8 +2659,11 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2537,23 +2671,23 @@
         <v>500</v>
       </c>
       <c r="E58" s="3">
+        <v>500</v>
+      </c>
+      <c r="F58" s="3">
         <v>100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2600</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2569,32 +2703,35 @@
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>900</v>
+      </c>
+      <c r="E59" s="3">
         <v>700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1000</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2610,32 +2747,35 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E60" s="3">
         <v>1800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4100</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2651,8 +2791,11 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2660,23 +2803,23 @@
         <v>500</v>
       </c>
       <c r="E61" s="3">
+        <v>500</v>
+      </c>
+      <c r="F61" s="3">
         <v>1000</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
         <v>1000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>4400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2600</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -2692,8 +2835,11 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2701,22 +2847,22 @@
         <v>700</v>
       </c>
       <c r="E62" s="3">
+        <v>700</v>
+      </c>
+      <c r="F62" s="3">
         <v>800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>200</v>
       </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
+      <c r="J62" s="3">
+        <v>0</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
@@ -2733,8 +2879,11 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2774,8 +2923,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2815,8 +2967,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2856,8 +3011,11 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2865,23 +3023,23 @@
         <v>3100</v>
       </c>
       <c r="E66" s="3">
-        <v>3700</v>
+        <v>3100</v>
       </c>
       <c r="F66" s="3">
         <v>3700</v>
       </c>
       <c r="G66" s="3">
+        <v>3700</v>
+      </c>
+      <c r="H66" s="3">
         <v>2700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>8100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>6700</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2897,8 +3055,11 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2914,8 +3075,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2955,8 +3117,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2996,8 +3161,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3037,8 +3205,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3078,32 +3249,35 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-62100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-60800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-59100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-57800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-56000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-54400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-52300</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3119,8 +3293,11 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3160,8 +3337,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3201,8 +3381,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3242,32 +3425,35 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E76" s="3">
         <v>200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-6100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-4100</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3283,8 +3469,11 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3324,95 +3513,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45138</v>
+      </c>
+      <c r="E80" s="2">
         <v>45046</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44957</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44865</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44773</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44681</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44592</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44500</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44408</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44316</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-900</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3428,8 +3626,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3460,8 +3659,8 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
+      <c r="M83" s="3">
+        <v>0</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
@@ -3469,8 +3668,11 @@
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3510,8 +3712,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3551,8 +3756,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3592,8 +3800,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3633,8 +3844,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3674,40 +3888,43 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-2500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-800</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-700</v>
       </c>
       <c r="L89" s="3">
         <v>-700</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
+      <c r="M89" s="3">
+        <v>-700</v>
       </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
@@ -3715,8 +3932,11 @@
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3732,8 +3952,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3761,8 +3982,8 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
@@ -3773,8 +3994,11 @@
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3814,8 +4038,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3855,8 +4082,11 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3887,8 +4117,8 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
+      <c r="M94" s="3">
+        <v>0</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
@@ -3896,8 +4126,11 @@
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3913,8 +4146,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3954,8 +4188,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3995,8 +4232,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4036,8 +4276,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4077,49 +4320,55 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>300</v>
+      </c>
+      <c r="E100" s="3">
         <v>1600</v>
-      </c>
-      <c r="E100" s="3">
-        <v>-100</v>
       </c>
       <c r="F100" s="3">
         <v>-100</v>
       </c>
       <c r="G100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H100" s="3">
         <v>5200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>3100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1100</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>500</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4159,45 +4408,51 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>3400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-200</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
